--- a/apps/delphes/runtime/configuration_delphes_jm.xlsx
+++ b/apps/delphes/runtime/configuration_delphes_jm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joel/Documents/Dev/Athena/trusted-service/apps/delphes/runtime/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11599C31-EA8B-F944-9FDE-F4EB90B81420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE56235-3802-0D4F-9AC2-6656E3AD9A46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="500" windowWidth="32540" windowHeight="18080" tabRatio="760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="500" windowWidth="32540" windowHeight="18080" tabRatio="760" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="locale_old" sheetId="12" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="197">
   <si>
     <t>response_format_type</t>
   </si>
@@ -76,9 +76,6 @@
     <t>temperature</t>
   </si>
   <si>
-    <t>gpt-4o-mini</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
   </si>
   <si>
     <t>llm</t>
-  </si>
-  <si>
-    <t>openai</t>
   </si>
   <si>
     <t>fr</t>
@@ -709,6 +703,18 @@
   </si>
   <si>
     <t>http://127.0.0.1:8080</t>
+  </si>
+  <si>
+    <t>ollama</t>
+  </si>
+  <si>
+    <t>mistral-small</t>
+  </si>
+  <si>
+    <t>openai or ollama</t>
+  </si>
+  <si>
+    <t>gpt-4o-mini or mistral-small</t>
   </si>
 </sst>
 </file>
@@ -835,7 +841,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -1127,7 +1133,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -1159,10 +1165,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
@@ -1198,52 +1204,52 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>154</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>156</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>155</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>157</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B7" s="5">
         <v>587</v>
@@ -1276,35 +1282,35 @@
   <sheetData>
     <row r="1" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="144" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>176</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -1329,26 +1335,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1374,170 +1380,170 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="144" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="144" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="96" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="144" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="192" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="144" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="112" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="144" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="192" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="64" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="80" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="160" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1563,26 +1569,26 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1595,7 +1601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CDFDD5-DDA9-4342-AD9F-1784F0C7F8C5}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -1619,36 +1625,36 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>184</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>186</v>
       </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B5" s="13">
         <v>8002</v>
@@ -1688,13 +1694,13 @@
     </row>
     <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1731,32 +1737,32 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>173</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -1790,63 +1796,63 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>131</v>
-      </c>
       <c r="J1" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F2" s="8" t="b">
         <v>1</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J2" s="8" t="b">
         <v>1</v>
@@ -1854,31 +1860,31 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>128</v>
-      </c>
       <c r="E3" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F3" s="8" t="b">
         <v>1</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J3" s="8" t="b">
         <v>1</v>
@@ -1886,31 +1892,31 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F4" s="8" t="b">
         <v>1</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J4" s="8" t="b">
         <v>0</v>
@@ -1918,31 +1924,31 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F5" s="8" t="b">
         <v>1</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J5" s="8" t="b">
         <v>0</v>
@@ -1950,31 +1956,31 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F6" s="8" t="b">
         <v>1</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J6" s="8" t="b">
         <v>0</v>
@@ -1982,31 +1988,31 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F7" s="8" t="b">
         <v>1</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J7" s="8" t="b">
         <v>0</v>
@@ -2014,31 +2020,31 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F8" s="8" t="b">
         <v>1</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J8" s="5" t="b">
         <v>1</v>
@@ -2046,29 +2052,29 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F9" s="7" t="b">
         <v>0</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J9" s="8" t="b">
         <v>1</v>
@@ -2076,31 +2082,31 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F10" s="8" t="b">
         <v>1</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J10" s="5" t="b">
         <v>1</v>
@@ -2108,28 +2114,28 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F11" s="14" t="b">
         <v>1</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J11" s="14" t="b">
         <v>0</v>
@@ -2160,8 +2166,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2185,21 +2191,25 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="5"/>
+        <v>193</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="5"/>
+        <v>194</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
@@ -2223,16 +2233,16 @@
     </row>
     <row r="6" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B7" s="2" t="b">
         <v>0</v>
@@ -2241,7 +2251,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B8" s="2" t="b">
         <v>1</v>
@@ -2270,50 +2280,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2339,243 +2349,243 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A21" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A22" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2607,15 +2617,15 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>164</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B3" s="7" t="b">
         <v>1</v>

--- a/apps/delphes/runtime/configuration_delphes_jm.xlsx
+++ b/apps/delphes/runtime/configuration_delphes_jm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joel/Documents/Dev/Athena/trusted-service/apps/delphes/runtime/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B46B961E-3D63-F144-9A9F-01F200D44B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C63740-4D44-C24D-BBF7-4D2FB1E2D46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18860" tabRatio="760" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18860" tabRatio="760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="common" sheetId="18" r:id="rId1"/>
@@ -1282,8 +1282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CDFDD5-DDA9-4342-AD9F-1784F0C7F8C5}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1338,7 +1338,7 @@
         <v>144</v>
       </c>
       <c r="B5" s="13">
-        <v>8002</v>
+        <v>8052</v>
       </c>
       <c r="C5" s="5"/>
     </row>
@@ -2495,7 +2495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>

--- a/apps/delphes/runtime/configuration_delphes_jm.xlsx
+++ b/apps/delphes/runtime/configuration_delphes_jm.xlsx
@@ -8,23 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joel/Documents/Dev/Athena/trusted-service/apps/delphes/runtime/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24C63740-4D44-C24D-BBF7-4D2FB1E2D46F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C603F47-CC17-0D47-8BCD-96F17CB2695D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18860" tabRatio="760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="500" windowWidth="33700" windowHeight="15720" tabRatio="760" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="common" sheetId="18" r:id="rId1"/>
     <sheet name="frontend" sheetId="17" r:id="rId2"/>
     <sheet name="backend" sheetId="14" r:id="rId3"/>
-    <sheet name="case_fields" sheetId="10" r:id="rId4"/>
-    <sheet name="id_labels" sheetId="19" r:id="rId5"/>
-    <sheet name="text_analysis" sheetId="1" r:id="rId6"/>
-    <sheet name="definitions" sheetId="7" r:id="rId7"/>
-    <sheet name="intentions" sheetId="2" r:id="rId8"/>
-    <sheet name="odm" sheetId="15" r:id="rId9"/>
-    <sheet name="drools" sheetId="16" r:id="rId10"/>
-    <sheet name="email_configuration" sheetId="13" r:id="rId11"/>
-    <sheet name="email_templates" sheetId="11" r:id="rId12"/>
+    <sheet name="messages_to_agent" sheetId="21" r:id="rId4"/>
+    <sheet name="messages_to_requester" sheetId="20" r:id="rId5"/>
+    <sheet name="case_fields" sheetId="10" r:id="rId6"/>
+    <sheet name="id_labels" sheetId="19" r:id="rId7"/>
+    <sheet name="text_analysis" sheetId="1" r:id="rId8"/>
+    <sheet name="definitions" sheetId="7" r:id="rId9"/>
+    <sheet name="intentions" sheetId="2" r:id="rId10"/>
+    <sheet name="odm" sheetId="15" r:id="rId11"/>
+    <sheet name="drools" sheetId="16" r:id="rId12"/>
+    <sheet name="email_configuration" sheetId="13" r:id="rId13"/>
+    <sheet name="email_templates" sheetId="11" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="294">
   <si>
     <t>response_format_type</t>
   </si>
@@ -208,55 +210,10 @@
     <t>depot_de_demande_d_asile</t>
   </si>
   <si>
-    <t>ou_en_est_ma_demande_d_asile_en_cours</t>
-  </si>
-  <si>
     <t>expiration_d_une_atda</t>
   </si>
   <si>
     <t>mise_a_jour_infos_atda</t>
-  </si>
-  <si>
-    <t>demande_en_rapport_avec_procedure_dublin_en_cours</t>
-  </si>
-  <si>
-    <t>ressortissant_ukrainien_demande_un_nouveau_titre</t>
-  </si>
-  <si>
-    <t>ressortissant_ukrainien_demande_renouvellement_de_son_titre</t>
-  </si>
-  <si>
-    <t>ressortissant_ukrainien_autre_demande</t>
-  </si>
-  <si>
-    <t>demande_d_un_etudiant_en_programme_de_mobilite</t>
-  </si>
-  <si>
-    <t>demande_d_un_stagiaire_associe_en_profession_medicale</t>
-  </si>
-  <si>
-    <t>difficultes_avec_le_site_de_l_anef</t>
-  </si>
-  <si>
-    <t>changement_statut_etudiant_a_salarie</t>
-  </si>
-  <si>
-    <t>changement_statut_etudiant_a_recherche_d_emploi</t>
-  </si>
-  <si>
-    <t>sollicitation_titre_vie_privee_et_familiale_hors_anef</t>
-  </si>
-  <si>
-    <t>depot_d_une_demande_de_titre_et_je_n_arrive_pas_a_creer_mon_compte_anef</t>
-  </si>
-  <si>
-    <t>depot_d_une_demande_de_titre_et_autre_blocage_sur_le_site_de_l_anef</t>
-  </si>
-  <si>
-    <t>depot_d_une_demande_de_titre_et_autre_probleme_anef</t>
-  </si>
-  <si>
-    <t>je_veux_retourner_dans_mon_pays_pour_motif_exceptionnel</t>
   </si>
   <si>
     <t>mention_de_risque_sur_l_emploi</t>
@@ -507,51 +464,12 @@
     <t>Used for defining the CORS middleware - Make sure this is the port you are using for the client</t>
   </si>
   <si>
-    <t>Either odm, drools or the fqn of a subclass of CaseHandlingDecisionEngine,  - apps.delphes.design_time.src.app_delphes.CaseHandlingDecisionEngineDelphesPython</t>
-  </si>
-  <si>
     <t>http://localhost:9060/DecisionService/rest/delphes/case_handling_decision</t>
   </si>
   <si>
     <t>direct</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>a2</t>
-  </si>
-  <si>
-    <t>b2</t>
-  </si>
-  <si>
-    <t>c2</t>
-  </si>
-  <si>
-    <t>d2</t>
-  </si>
-  <si>
     <t>type</t>
   </si>
   <si>
@@ -621,7 +539,7 @@
     <t>VERS, RAMB, SGEL, MLJ</t>
   </si>
   <si>
-    <t>apps.delphes.design_time.src.app_delphes.CaseHandlingDecisionEngineDelphesPython</t>
+    <t>en</t>
   </si>
   <si>
     <t>label_en</t>
@@ -712,9 +630,6 @@
   </si>
   <si>
     <t>Attestation de Prolongation de l’Instruction (Certificate of Extension of Processing, a document generated from the ANEF platform)</t>
-  </si>
-  <si>
-    <t>ATtestation de Demande d’Asile (Certificate of Asylum Application)</t>
   </si>
   <si>
     <t>Document de Circulation pour Etranger Mineur (Travel Document for a Minor Foreigner)</t>
@@ -800,9 +715,6 @@
     <t>DELPHES</t>
   </si>
   <si>
-    <t>DELPHES est une solution innovante et efficace de prétraitement et de routage intelligent des demandes adressées par des demandeurs étrangers aux préfectures. Cette solution est construite sur le framework Athena Démarches en Confiance.</t>
-  </si>
-  <si>
     <t>app_name_fr</t>
   </si>
   <si>
@@ -815,24 +727,223 @@
     <t>app_description_en</t>
   </si>
   <si>
-    <t>DELPHES is an innovative, efficient solution for pre‑processing and intelligently routing applications submitted by foreign applicants to prefectural offices in France. The system is built on the Athena Trusted Services framework.</t>
+    <t>Whether emails are sent or not</t>
+  </si>
+  <si>
+    <t>send_email</t>
+  </si>
+  <si>
+    <t>EXPIRATION OF AN API (EXTENSION‑OF‑PROCESSING CERTIFICATE)</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>text_en</t>
+  </si>
+  <si>
+    <t>text_fr</t>
+  </si>
+  <si>
+    <t>ACK</t>
+  </si>
+  <si>
+    <t>API_VA_EXPIRER_DANS_X_JOURS</t>
+  </si>
+  <si>
+    <t>L'API va expirer dans {0} jour(s)</t>
+  </si>
+  <si>
+    <t>API will expire in {0} day(s)</t>
+  </si>
+  <si>
+    <t>Veuillez vous adresser à votre contact OFPRA</t>
+  </si>
+  <si>
+    <t>Your request has been registered. It will be processed by an agent</t>
+  </si>
+  <si>
+    <t>Votre demande a été prise en compte. Un agent la traitera dans les plus brefs délais</t>
+  </si>
+  <si>
+    <t>Please reach out to your contact at OFPRA</t>
+  </si>
+  <si>
+    <t>CONTACT_OFPRA</t>
+  </si>
+  <si>
+    <t>VISIT_PAGE</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>Markdown link of the form [text](url)</t>
+  </si>
+  <si>
+    <t>Please visit [{0}]({1})</t>
+  </si>
+  <si>
+    <t>Veuillez consulter la page [{0}]({1})</t>
+  </si>
+  <si>
+    <t>API_EXPIREE_DEPUIS_X_JOURS</t>
+  </si>
+  <si>
+    <t>API expired {0} day(s) ago</t>
+  </si>
+  <si>
+    <t>L'API expirée sepuis {0} jour(s)</t>
+  </si>
+  <si>
+    <t>RISQUE_SUR_EMPLOI</t>
+  </si>
+  <si>
+    <t>Risk on employment</t>
+  </si>
+  <si>
+    <t>Risque sur l'emploi</t>
+  </si>
+  <si>
+    <t>ukr_demande_renouv_titre</t>
+  </si>
+  <si>
+    <t>ukr_autre_demande</t>
+  </si>
+  <si>
+    <t>ukr_demande_un_nouveau_titre</t>
+  </si>
+  <si>
+    <t>ou_en_est_ma_dem_asile_en_cours</t>
+  </si>
+  <si>
+    <t>dem_etudiant_progr_mobilite</t>
+  </si>
+  <si>
+    <t>depot_dem_titre_autre_pb_anef</t>
+  </si>
+  <si>
+    <t>dem_retour_pays_motif_except</t>
+  </si>
+  <si>
+    <t>depot_dem_titre_pb_cr_cpte_anef</t>
+  </si>
+  <si>
+    <t>diff_avec_le_site_de_l_anef</t>
+  </si>
+  <si>
+    <t>dem_en_rapport_dublin_en_cours</t>
+  </si>
+  <si>
+    <t>sollicit_titre_vpf_hors_anef</t>
+  </si>
+  <si>
+    <t>dem_stagiaire_prof_medic</t>
+  </si>
+  <si>
+    <t>chang_stat_etud_a_salarie</t>
+  </si>
+  <si>
+    <t>chang_stat_etud_a_rech_empl</t>
   </si>
   <si>
     <t xml:space="preserve">Aujourd'hui est le {date_demande} (JJ/MM/AAAA).  
 Vous êtes un agent en charge d'analyser des demandes en rapport avec les procédures d'Asile ou de Séjour envoyées par des demandeurs étrangers à une Préfecture de département.  </t>
   </si>
   <si>
-    <t xml:space="preserve">Today is {date_demande} (JJ/MM/AAAA).  
+    <t>API expiration date formatted as DD/MM/YYYY</t>
+  </si>
+  <si>
+    <t>requester has refugee status or subsidiary protection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Today is {date_demande} (DD/MM/YYYY).  
 You are an officer responsible for reviewing applications related to asylum or residence procedures submitted by foreign applicants to a departmental prefecture in France.  </t>
   </si>
   <si>
-    <t>Whether emails are sent or not</t>
-  </si>
-  <si>
-    <t>send_email</t>
-  </si>
-  <si>
-    <t>EXPIRATION OF AN API (EXTENSION‑OF‑PROCESSING CERTIFICATE)</t>
+    <t>mention of risk on employment</t>
+  </si>
+  <si>
+    <t>Attestation de Demande d’Asile (Certificate of Asylum Application)</t>
+  </si>
+  <si>
+    <t>prompt_format</t>
+  </si>
+  <si>
+    <t>markdown</t>
+  </si>
+  <si>
+    <t>markdown or text</t>
+  </si>
+  <si>
+    <t>depot_dem_titre_autre_blocage_anef</t>
+  </si>
+  <si>
+    <t>Demandeurs Etrangers, Logique de Priorisation et Hiérarchisation des E-mails pour les Services  
+DELPHES est une solution innovante et efficace de prétraitement et de routage intelligent des demandes adressées par des demandeurs étrangers aux préfectures. Cette solution est construite sur le framework Athena Démarches en Confiance.</t>
+  </si>
+  <si>
+    <t>Demandeurs Etrangers, Logique de Priorisation et Hiérarchisation des E-mails pour les Services  
+DELPHES is an innovative, efficient solution for pre‑processing and intelligently routing applications submitted by foreign applicants to prefectural offices in France. The system is built on the Athena Trusted Services framework.</t>
+  </si>
+  <si>
+    <t>apps.delphes.design_time.src.decision_engine_delphes_python.CaseHandlingDecisionEngineDelphesPython</t>
+  </si>
+  <si>
+    <t>Either odm, drools or the fqn of a subclass of CaseHandlingDecisionEngine,  as: apps.delphes.design_time.src.decision_engine_delphes_python.CaseHandlingDecisionEngineDelphesPython</t>
+  </si>
+  <si>
+    <t>sample_text_en</t>
+  </si>
+  <si>
+    <t>sample_text_fr</t>
+  </si>
+  <si>
+    <t>Bonjour, 
+Je vous sollicite pour le compte de l'un de nos adhérents, Monsieur C C, dont la situation est assez complexe, et dont le numéro de la demande de renouvellement de carte de séjour est le 7500000000000000003.
+Il bénéficie actuellement du statut de protection subsidiaire et aimerait se rendre dans son pays de façon temporaire et exceptionnelle pour assister aux obsèques de son père.
+Il aimerait déposer une demande de droit d'asile.
+Par ailleurs, l'attestation de prolongation d'instruction de Monsieur C est arrivée à expiration depuis le 11 octobre 2024. Aussi, il souhaiterait obtenir une nouvelle attestation pour pouvoir justifier de la régularité de son séjour, dans l'attente de recevoir carte de séjour. 
+Sans action dans les prochains jours, il risquera de perdre son travail.
+Je vous remercie par avance et vous prie de noter l'urgence. Il risque son emploi, c'est donc très important.
+Monsieur C aimerait, par ailleurs, faire une demande d'Asile à la France.</t>
+  </si>
+  <si>
+    <t>Hello,
+I am writing on behalf of one of our members, Mr C C, whose case is rather complex and whose residence‑permit renewal application number (numéro de la demande de renouvellement de carte de séjour) is 7500000000000000003.
+He currently holds subsidiary protection status and would like to travel to his home country, on a temporary and exceptional basis, to attend his father’s funeral.
+He would also like to submit an asylum application.
+In addition, Mr C’s processing‑extension certificate expired on 11 October 2024. He therefore wishes to obtain a new certificate so he can prove the legality of his stay while awaiting his residence permit.
+Without action in the next few days, he risks losing his job.
+Thank you in advance for your attention; please note the urgency—his employment is at stake, so this matter is very important.
+Mr C would furthermore like to file an asylum request with France.</t>
+  </si>
+  <si>
+    <t>{departement} == 78</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>ANT</t>
+  </si>
+  <si>
+    <t>Antony</t>
+  </si>
+  <si>
+    <t>BOULO</t>
+  </si>
+  <si>
+    <t>Boulogne-Billancourt</t>
+  </si>
+  <si>
+    <t>NANTER</t>
+  </si>
+  <si>
+    <t>Nanterre</t>
+  </si>
+  <si>
+    <t>{departement} == 92</t>
   </si>
   <si>
     <t>scaleway</t>
@@ -854,9 +965,6 @@
   </si>
   <si>
     <t>json_object</t>
-  </si>
-  <si>
-    <t>fr</t>
   </si>
 </sst>
 </file>
@@ -1282,8 +1390,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CDFDD5-DDA9-4342-AD9F-1784F0C7F8C5}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1306,39 +1414,39 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>263</v>
+        <v>160</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>149</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B5" s="13">
-        <v>8052</v>
+        <v>8002</v>
       </c>
       <c r="C5" s="5"/>
     </row>
@@ -1351,6 +1459,512 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40884519-E9E2-4702-AA20-B46B229B9942}">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="60" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="49.6640625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.1640625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" s="1">
+        <f>LEN(A6)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" ref="F7:F24" si="0">LEN(A7)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A14" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F18" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A20" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F25" s="1">
+        <f>MAX(F6:F24)</f>
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA2560B-2446-422E-A0A3-EC959CE749E5}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{0B2724BA-D7EB-4960-A3AF-7147620CC45E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67526D7-3946-41B7-9C99-93B1591CF2D0}">
   <dimension ref="A1:B2"/>
   <sheetViews>
@@ -1374,10 +1988,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1385,7 +1999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD020DE-44B7-44EF-BEA3-8491F2595E0A}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -1416,52 +2030,52 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B7" s="5">
         <v>587</v>
@@ -1470,13 +2084,13 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="19" t="s">
-        <v>254</v>
+        <v>221</v>
       </c>
       <c r="B8" s="5" t="b">
         <v>0</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -1489,12 +2103,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAADDD23-DB13-4EC8-8D22-BE27FCA5478C}">
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1510,50 +2124,50 @@
         <v>9</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>240</v>
+        <v>211</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="144" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -1563,16 +2177,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4770C3BF-D2D4-4BEC-BA39-094D657EDCA0}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="35.5" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="148.83203125" customWidth="1"/>
     <col min="3" max="3" width="151.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1589,14 +2203,32 @@
     </row>
     <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>142</v>
-      </c>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="272" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="1:3" ht="272" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="C4" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1608,8 +2240,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549C78AA-1218-455B-9887-3E0A5E59C6C7}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1632,68 +2264,68 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="C2" s="5"/>
     </row>
-    <row r="3" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>250</v>
+        <v>271</v>
       </c>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="64" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>188</v>
+        <v>272</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>150</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C8" s="5"/>
     </row>
@@ -1704,14 +2336,161 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2ED06FD-CD59-4243-896C-6A0821CD9182}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" customWidth="1"/>
+    <col min="3" max="3" width="28" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A280385-38F0-446C-9432-C0DF8BDF752B}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="73.83203125" customWidth="1"/>
+    <col min="3" max="3" width="73" customWidth="1"/>
+    <col min="4" max="4" width="59.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF16B1B1-A6B4-4B56-9813-CCF1B731EDAC}">
   <sheetPr>
     <tabColor rgb="FFEE0000"/>
   </sheetPr>
   <dimension ref="A1:Q11"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1727,7 +2506,8 @@
     <col min="11" max="11" width="9.1640625" customWidth="1"/>
     <col min="12" max="12" width="11.1640625" customWidth="1"/>
     <col min="13" max="13" width="58" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="45.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="49" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="45.5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="23.5" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="24.1640625" bestFit="1" customWidth="1"/>
   </cols>
@@ -1737,102 +2517,102 @@
         <v>9</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="G1" s="15" t="s">
-        <v>173</v>
+        <v>145</v>
       </c>
       <c r="H1" s="15" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>170</v>
+        <v>142</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>191</v>
+        <v>163</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>15</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="Q1" s="4" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>199</v>
+        <v>171</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>168</v>
+        <v>140</v>
       </c>
       <c r="E2" s="7" t="b">
         <v>1</v>
       </c>
       <c r="F2" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="G2" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="K2" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="L2" s="8" t="b">
         <v>1</v>
       </c>
       <c r="M2" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="N2" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="O2" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="P2" s="7" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="Q2" s="8" t="b">
         <v>1</v>
@@ -1840,52 +2620,52 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>200</v>
+        <v>172</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="E3" s="7" t="b">
         <v>1</v>
       </c>
       <c r="F3" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>94</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="H3" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="I3" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>109</v>
       </c>
       <c r="L3" s="8" t="b">
         <v>1</v>
       </c>
       <c r="M3" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="N3" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="O3" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="P3" s="7" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="Q3" s="8" t="b">
         <v>1</v>
@@ -1893,52 +2673,52 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E4" s="7" t="b">
         <v>1</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="I4" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="L4" s="8" t="b">
         <v>1</v>
       </c>
       <c r="M4" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="N4" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="O4" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="Q4" s="8" t="b">
         <v>0</v>
@@ -1946,52 +2726,52 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="E5" s="7" t="b">
         <v>1</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="J5" s="8" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="L5" s="8" t="b">
         <v>1</v>
       </c>
       <c r="M5" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="N5" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="O5" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="Q5" s="8" t="b">
         <v>0</v>
@@ -1999,52 +2779,52 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>203</v>
+        <v>175</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="E6" s="7" t="b">
         <v>1</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>176</v>
+        <v>148</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="K6" s="11" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="L6" s="8" t="b">
         <v>1</v>
       </c>
       <c r="M6" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="N6" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="O6" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="Q6" s="8" t="b">
         <v>0</v>
@@ -2052,52 +2832,52 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="16" t="s">
-        <v>177</v>
+        <v>149</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>206</v>
+        <v>178</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>211</v>
+        <v>183</v>
       </c>
       <c r="E7" s="7" t="b">
         <v>1</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>178</v>
+        <v>150</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="J7" s="8" t="s">
-        <v>182</v>
+        <v>154</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="L7" s="8" t="b">
         <v>1</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="Q7" s="8" t="b">
         <v>0</v>
@@ -2105,52 +2885,52 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>204</v>
+        <v>176</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>205</v>
+        <v>177</v>
       </c>
       <c r="E8" s="7" t="b">
         <v>0</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>175</v>
+        <v>147</v>
       </c>
       <c r="H8" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="J8" s="8" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="K8" s="8" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="L8" s="8" t="b">
         <v>1</v>
       </c>
       <c r="M8" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="N8" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="O8" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="Q8" s="8" t="b">
         <v>0</v>
@@ -2158,37 +2938,37 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>167</v>
+        <v>139</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>207</v>
+        <v>179</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>169</v>
+        <v>141</v>
       </c>
       <c r="E9" s="7" t="b">
         <v>1</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="G9" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="H9" s="17" t="s">
-        <v>171</v>
+        <v>143</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="L9" s="8" t="b">
         <v>1</v>
@@ -2197,13 +2977,13 @@
         <v>51</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>71</v>
+        <v>261</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="Q9" s="5" t="b">
         <v>1</v>
@@ -2211,52 +2991,52 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>208</v>
+        <v>180</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="E10" s="7" t="b">
         <v>1</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="G10" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="H10" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="J10" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="L10" s="7" t="b">
         <v>0</v>
       </c>
       <c r="M10" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>50</v>
+        <v>264</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>50</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="Q10" s="8" t="b">
         <v>1</v>
@@ -2264,52 +3044,52 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>209</v>
+        <v>181</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>210</v>
+        <v>182</v>
       </c>
       <c r="E11" s="7" t="b">
         <v>1</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="G11" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="H11" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="L11" s="8" t="b">
         <v>1</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>69</v>
+        <v>252</v>
       </c>
       <c r="N11" s="7" t="s">
-        <v>132</v>
+        <v>262</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="Q11" s="5" t="b">
         <v>1</v>
@@ -2326,164 +3106,134 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6ECAA67-41A6-4458-95C4-500183FDE676}">
   <sheetPr>
     <tabColor rgb="FFEE0000"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>151</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>155</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>156</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>161</v>
+        <v>280</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>157</v>
+        <v>281</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <v>281</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>162</v>
+        <v>282</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>158</v>
+        <v>283</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <v>283</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>163</v>
+        <v>284</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>159</v>
+        <v>285</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>186</v>
+        <v>285</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -2491,12 +3241,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="A2" sqref="A2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2505,8 +3255,8 @@
     <col min="2" max="2" width="86.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="28.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
@@ -2526,19 +3276,19 @@
         <v>12</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>256</v>
+        <v>13</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2546,19 +3296,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>259</v>
+        <v>8</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>8</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>261</v>
+        <v>292</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -2566,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>262</v>
+        <v>2</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>1</v>
@@ -2575,10 +3325,10 @@
         <v>2</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>262</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -2590,41 +3340,52 @@
       </c>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="C6" s="5"/>
-    </row>
-    <row r="7" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>266</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="64" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8" s="2" t="b">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B9" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2632,12 +3393,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F212B83-BB31-486E-8D1E-C153171C389E}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2649,496 +3410,72 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>190</v>
+        <v>162</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>216</v>
+        <v>188</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>218</v>
+        <v>190</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>213</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>219</v>
+        <v>265</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>214</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>215</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40884519-E9E2-4702-AA20-B46B229B9942}">
-  <dimension ref="A1:E24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="60" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="40.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="49.6640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.1640625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="64" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>222</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A13" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="32" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="48" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA2560B-2446-422E-A0A3-EC959CE749E5}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{0B2724BA-D7EB-4960-A3AF-7147620CC45E}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>